--- a/윤지수/분석일정표.xlsx
+++ b/윤지수/분석일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jisoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF03432-C097-4FE6-A326-E7F46C0D7AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94694A16-E937-4E50-B2BB-92C44BE4834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8F78132-915A-4203-A0C0-7D3EF180C051}"/>
   </bookViews>
@@ -352,6 +352,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -366,9 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484D2C0A-E43B-4428-A045-E11E1E2E2D2D}">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -707,10 +707,10 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="32" x14ac:dyDescent="0.45">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
@@ -728,7 +728,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="32" x14ac:dyDescent="0.45">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -743,7 +743,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -765,20 +765,20 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -835,7 +835,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
@@ -846,14 +846,14 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:8" ht="32" x14ac:dyDescent="0.45">
@@ -866,7 +866,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="6" t="s">
         <v>23</v>
       </c>

--- a/윤지수/분석일정표.xlsx
+++ b/윤지수/분석일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jisoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94694A16-E937-4E50-B2BB-92C44BE4834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33B266F-60F3-4330-8DA9-FD3C88D2C256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8F78132-915A-4203-A0C0-7D3EF180C051}"/>
   </bookViews>
@@ -182,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,7 +358,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -369,6 +375,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484D2C0A-E43B-4428-A045-E11E1E2E2D2D}">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -748,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -760,7 +769,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
     </row>
@@ -773,7 +782,7 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
     </row>
@@ -805,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
@@ -817,7 +826,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
     </row>
@@ -830,7 +839,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
     </row>
@@ -841,7 +850,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
     </row>
@@ -852,8 +861,8 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="2:8" ht="32" x14ac:dyDescent="0.45">
@@ -866,7 +875,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="6" t="s">
         <v>23</v>
       </c>

--- a/윤지수/분석일정표.xlsx
+++ b/윤지수/분석일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jisoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33B266F-60F3-4330-8DA9-FD3C88D2C256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83151EE3-1D0E-418D-A16B-C1531CF7EBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8F78132-915A-4203-A0C0-7D3EF180C051}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>해당 주차에 표기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,11 @@
   </si>
   <si>
     <t>PPT 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차
+(7/13~7/19)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +366,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -376,7 +387,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484D2C0A-E43B-4428-A045-E11E1E2E2D2D}">
-  <dimension ref="B2:H15"/>
+  <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -709,17 +726,17 @@
     <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="32" x14ac:dyDescent="0.45">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:9" ht="32" x14ac:dyDescent="0.45">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
@@ -732,12 +749,15 @@
       <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="32" x14ac:dyDescent="0.45">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:9" ht="64" x14ac:dyDescent="0.45">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -745,36 +765,39 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="18"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="20"/>
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="18"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="20"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="17" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -782,56 +805,61 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="18"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="20"/>
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="18"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="20"/>
       <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="18"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="20"/>
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="19"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="21"/>
       <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="17" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -840,32 +868,35 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="18"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="20"/>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="19"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="21"/>
       <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:8" ht="32" x14ac:dyDescent="0.45">
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" ht="48" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -874,9 +905,10 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="6" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="6" t="s">
         <v>23</v>
       </c>
     </row>

--- a/윤지수/분석일정표.xlsx
+++ b/윤지수/분석일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jisoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83151EE3-1D0E-418D-A16B-C1531CF7EBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC4B81C-7F21-4D5F-98AC-16CB677C7258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8F78132-915A-4203-A0C0-7D3EF180C051}"/>
   </bookViews>
@@ -372,6 +372,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -386,15 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,7 +713,7 @@
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -733,10 +733,10 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="32" x14ac:dyDescent="0.45">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
@@ -757,7 +757,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="64" x14ac:dyDescent="0.45">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -773,7 +773,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="20"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
@@ -785,19 +785,19 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="20"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -805,25 +805,25 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="23"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="16"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="20"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="24"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="20"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="20"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -873,7 +873,7 @@
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="20"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="21"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="8" t="s">
         <v>18</v>
       </c>

--- a/윤지수/분석일정표.xlsx
+++ b/윤지수/분석일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jisoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC4B81C-7F21-4D5F-98AC-16CB677C7258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823898D2-0B81-4109-8D4D-CB1A1B42EA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8F78132-915A-4203-A0C0-7D3EF180C051}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>해당 주차에 표기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,11 @@
   <si>
     <t>5주차
 (7/13~7/19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차
+(7/20~7/26)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -314,13 +319,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +411,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484D2C0A-E43B-4428-A045-E11E1E2E2D2D}">
-  <dimension ref="B2:I15"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -721,18 +743,18 @@
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="1" customWidth="1"/>
-    <col min="4" max="7" width="13.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="9" width="13.58203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="32" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" ht="48" x14ac:dyDescent="0.45">
       <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
@@ -752,11 +774,14 @@
       <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="64" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" ht="64" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
@@ -768,11 +793,12 @@
       <c r="F4" s="14"/>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="23"/>
       <c r="C5" s="9" t="s">
         <v>8</v>
@@ -782,9 +808,10 @@
       <c r="F5" s="14"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="23"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
@@ -793,10 +820,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="17"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H6" s="25"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
@@ -807,10 +835,11 @@
       <c r="E7" s="2"/>
       <c r="F7" s="18"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H7" s="26"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="23"/>
       <c r="C8" s="9" t="s">
         <v>10</v>
@@ -819,10 +848,11 @@
       <c r="E8" s="13"/>
       <c r="F8" s="19"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H8" s="25"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="23"/>
       <c r="C9" s="9" t="s">
         <v>13</v>
@@ -831,10 +861,11 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="23"/>
       <c r="C10" s="8" t="s">
         <v>14</v>
@@ -843,10 +874,11 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H10" s="25"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="24"/>
       <c r="C11" s="8" t="s">
         <v>20</v>
@@ -855,10 +887,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H11" s="15"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="22" t="s">
         <v>15</v>
       </c>
@@ -869,10 +902,11 @@
       <c r="E12" s="3"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H12" s="15"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="23"/>
       <c r="C13" s="8" t="s">
         <v>17</v>
@@ -881,10 +915,11 @@
       <c r="E13" s="3"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H13" s="15"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="24"/>
       <c r="C14" s="8" t="s">
         <v>18</v>
@@ -894,9 +929,10 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="2:9" ht="48" x14ac:dyDescent="0.45">
+      <c r="I14" s="15"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" ht="48" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -907,8 +943,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="14"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -921,5 +958,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>